--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1553.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1553.xlsx
@@ -354,10 +354,10 @@
         <v>1.47663103295528</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.258424878617735</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1553.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1553.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.081211377161446</v>
+        <v>1.528300762176514</v>
       </c>
       <c r="B1">
-        <v>1.47663103295528</v>
+        <v>2.386903047561646</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.318450927734375</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.471071243286133</v>
       </c>
       <c r="E1">
-        <v>1.258424878617735</v>
+        <v>0.7816293835639954</v>
       </c>
     </row>
   </sheetData>
